--- a/PA2_Excel/PA2 100 Zeilen test_IT_spezialist.xlsx
+++ b/PA2_Excel/PA2 100 Zeilen test_IT_spezialist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Niclas\PA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Niclas\PA2\Abgabe\PA2_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6672F906-8F90-4D30-8C08-D988EE7320FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B964647D-B423-48AC-BAE2-3B0BCECB84E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5BFBFAF-256E-4046-9FBB-7AA012427B0E}"/>
+    <workbookView xWindow="36105" yWindow="2820" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{E5BFBFAF-256E-4046-9FBB-7AA012427B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="3" r:id="rId1"/>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE26128-8709-4E2D-AB2E-B49D616E8DF6}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" activeCellId="1" sqref="P3 M2"/>
     </sheetView>
   </sheetViews>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E1B205-C8F1-4AA9-8EBB-5DBCE8C3A5B4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -897,12 +897,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1038,15 +1035,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C6CF1D-5FC6-4BB9-B3EA-63A27E1F4948}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9DC2D9-DF15-401A-BE25-C5DD9CFF7E24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1070,10 +1071,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9DC2D9-DF15-401A-BE25-C5DD9CFF7E24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C6CF1D-5FC6-4BB9-B3EA-63A27E1F4948}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>